--- a/Infra.xlsx
+++ b/Infra.xlsx
@@ -372,22 +372,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Nombre</t>
+          <t>Sucursal</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Sucursal</t>
+          <t>CARPETA DE GESTIÓN ELECTRO</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>INFRAESTRUCTURA,  el local se encuentra en condiciones respecto a las luces ,  techos , paredes , pisos , baños, humedad </t>
+          <t>Comentarios Carpeta Electro</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Comentarios Controles de Infraestructura</t>
+          <t>Pregunta</t>
         </is>
       </c>
     </row>
@@ -397,22 +397,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sebastian isetta</t>
+          <t>La paz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>La paz</t>
+          <t>¿Tiene firmados los objetivos de todos los vendedores?;¿Tiene planificación de trabajo por el desvío de objetivos -mes anterior? (template);¿Tiene acta de reuniones de los objetivos BC - BL y GEX?;¿Tiene cierre y devoluciones realizadas mes anterior?;Comunicación: firma de procesos claves;</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>a medias</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Falta pintar la fachada y ver tema del cartel</t>
+          <t>El chevk list de esta semana falta por encontrarse de vacaciones</t>
         </is>
       </c>
     </row>
@@ -422,22 +417,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sebastian isetta</t>
+          <t>La paz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>La paz</t>
+          <t>¿Tiene firmados los objetivos de todos los vendedores?;¿Tiene planificación de trabajo por el desvío de objetivos -mes anterior? (template);¿Tiene acta de reuniones de los objetivos BC - BL y GEX?;¿Tiene cierre y devoluciones realizadas mes anterior?;Comunicación: firma de procesos claves;Tiene el Gerente realizado el check list del día?;</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>a medias</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Falta trabajos de pintura</t>
+          <t>Se realizó la reunión con los vendedores haciendo hincapié en blister y garantía .</t>
         </is>
       </c>
     </row>
@@ -447,17 +437,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Juan Navarro</t>
+          <t>Formosa </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Formosa </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>a medias</t>
+          <t>¿Tiene acta de reuniones de los objetivos BC - BL y GEX?;Comunicación: firma de procesos claves;Tiene el Gerente realizado el check list del día?;</t>
         </is>
       </c>
     </row>
